--- a/DateBase/orders/_2024-8-28.xlsx
+++ b/DateBase/orders/_2024-8-28.xlsx
@@ -397,75 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>PakingID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>weight/kg</v>
-      </c>
-      <c r="C1" t="str">
-        <v>species</v>
-      </c>
-      <c r="D1" t="str">
-        <v>mingcheng</v>
-      </c>
-      <c r="E1" t="str">
-        <v>guige</v>
-      </c>
-      <c r="F1" t="str">
-        <v>shuliang</v>
-      </c>
-      <c r="G1" t="str">
-        <v>jinjia</v>
-      </c>
-      <c r="H1" t="str">
-        <v>danjia</v>
-      </c>
-      <c r="I1" t="str">
-        <v>guige_number</v>
-      </c>
-      <c r="J1" t="str">
-        <v>guige_currency</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
-        <v>0.8</v>
-      </c>
-      <c r="C2" t="str">
-        <v>lisianthus</v>
-      </c>
-      <c r="D2" t="str">
-        <v>白洋桔梗</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="str">
-        <v>g</v>
-      </c>
-      <c r="J2">
-        <v>800</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/DateBase/orders/_2024-8-28.xlsx
+++ b/DateBase/orders/_2024-8-28.xlsx
@@ -397,13 +397,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PakingID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>weight/kg</v>
+      </c>
+      <c r="C1" t="str">
+        <v>species</v>
+      </c>
+      <c r="D1" t="str">
+        <v>mingcheng</v>
+      </c>
+      <c r="E1" t="str">
+        <v>guige</v>
+      </c>
+      <c r="F1" t="str">
+        <v>shuliang</v>
+      </c>
+      <c r="G1" t="str">
+        <v>jinjia</v>
+      </c>
+      <c r="H1" t="str">
+        <v>danjia</v>
+      </c>
+      <c r="I1" t="str">
+        <v>guige_number</v>
+      </c>
+      <c r="J1" t="str">
+        <v>guige_currency</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>0.8</v>
+      </c>
+      <c r="C2" t="str">
+        <v>lisianthus</v>
+      </c>
+      <c r="D2" t="str">
+        <v>白洋桔梗</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="str">
+        <v>g</v>
+      </c>
+      <c r="J2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="str">
+        <v>0.6</v>
+      </c>
+      <c r="C3" t="str">
+        <v>lisianthus</v>
+      </c>
+      <c r="D3" t="str">
+        <v>白洋桔梗</v>
+      </c>
+      <c r="F3" t="str">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="str">
+        <v>g</v>
+      </c>
+      <c r="J3" t="str">
+        <v>600</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/DateBase/orders/_2024-8-28.xlsx
+++ b/DateBase/orders/_2024-8-28.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -447,51 +447,25 @@
       <c r="D2" t="str">
         <v>白洋桔梗</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+      <c r="F2" t="str">
+        <v>20</v>
+      </c>
+      <c r="G2" t="str">
+        <v>10</v>
+      </c>
+      <c r="H2" t="str">
+        <v>20</v>
       </c>
       <c r="I2" t="str">
         <v>g</v>
       </c>
       <c r="J2">
         <v>800</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="str">
-        <v>0.6</v>
-      </c>
-      <c r="C3" t="str">
-        <v>lisianthus</v>
-      </c>
-      <c r="D3" t="str">
-        <v>白洋桔梗</v>
-      </c>
-      <c r="F3" t="str">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="str">
-        <v>g</v>
-      </c>
-      <c r="J3" t="str">
-        <v>600</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/DateBase/orders/_2024-8-28.xlsx
+++ b/DateBase/orders/_2024-8-28.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -419,18 +419,9 @@
         <v>guige</v>
       </c>
       <c r="F1" t="str">
-        <v>shuliang</v>
+        <v>guige_number</v>
       </c>
       <c r="G1" t="str">
-        <v>jinjia</v>
-      </c>
-      <c r="H1" t="str">
-        <v>danjia</v>
-      </c>
-      <c r="I1" t="str">
-        <v>guige_number</v>
-      </c>
-      <c r="J1" t="str">
         <v>guige_currency</v>
       </c>
     </row>
@@ -445,27 +436,18 @@
         <v>lisianthus</v>
       </c>
       <c r="D2" t="str">
-        <v>白洋桔梗</v>
+        <v>粉洋桔梗</v>
       </c>
       <c r="F2" t="str">
-        <v>20</v>
-      </c>
-      <c r="G2" t="str">
-        <v>10</v>
-      </c>
-      <c r="H2" t="str">
-        <v>20</v>
-      </c>
-      <c r="I2" t="str">
         <v>g</v>
       </c>
-      <c r="J2">
+      <c r="G2">
         <v>800</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/DateBase/orders/_2024-8-28.xlsx
+++ b/DateBase/orders/_2024-8-28.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -407,21 +407,30 @@
         <v>PakingID</v>
       </c>
       <c r="B1" t="str">
+        <v>species</v>
+      </c>
+      <c r="C1" t="str">
+        <v>mingcheng</v>
+      </c>
+      <c r="D1" t="str">
+        <v>guige</v>
+      </c>
+      <c r="E1" t="str">
         <v>weight/kg</v>
       </c>
-      <c r="C1" t="str">
-        <v>species</v>
-      </c>
-      <c r="D1" t="str">
-        <v>mingcheng</v>
-      </c>
-      <c r="E1" t="str">
-        <v>guige</v>
-      </c>
       <c r="F1" t="str">
+        <v>shuliang</v>
+      </c>
+      <c r="G1" t="str">
+        <v>jinjia</v>
+      </c>
+      <c r="H1" t="str">
+        <v>danjia</v>
+      </c>
+      <c r="I1" t="str">
         <v>guige_number</v>
       </c>
-      <c r="G1" t="str">
+      <c r="J1" t="str">
         <v>guige_currency</v>
       </c>
     </row>
@@ -430,24 +439,149 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>0.8</v>
+        <v>lisianthus</v>
       </c>
       <c r="C2" t="str">
+        <v>阳光粉洋桔梗</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2" t="str">
+        <v>bunch</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="str">
+        <v>rose</v>
+      </c>
+      <c r="C3" t="str">
+        <v>卡罗拉</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>102</v>
+      </c>
+      <c r="J3" t="str">
+        <v>bunch</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Hydrangeas</v>
+      </c>
+      <c r="C4" t="str">
+        <v>绣球莫奈</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4" t="str">
+        <v>stems</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Hydrangeas</v>
+      </c>
+      <c r="C5" t="str">
+        <v>绣球莫奈</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" t="str">
+        <v>bunch</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="str">
         <v>lisianthus</v>
       </c>
-      <c r="D2" t="str">
-        <v>粉洋桔梗</v>
-      </c>
-      <c r="F2" t="str">
-        <v>g</v>
-      </c>
-      <c r="G2">
-        <v>800</v>
+      <c r="C6" t="str">
+        <v>阳光粉洋桔梗</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>30</v>
+      </c>
+      <c r="J6" t="str">
+        <v>bunch</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/DateBase/orders/_2024-8-28.xlsx
+++ b/DateBase/orders/_2024-8-28.xlsx
@@ -450,8 +450,8 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="str">
+        <v>20</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -479,8 +479,8 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>0</v>
+      <c r="G3" t="str">
+        <v>20</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -505,8 +505,8 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>0</v>
+      <c r="F4" t="str">
+        <v>10</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -534,8 +534,8 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="F5" t="str">
+        <v>20</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -563,8 +563,8 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="F6" t="str">
+        <v>20</v>
       </c>
       <c r="G6">
         <v>0</v>
